--- a/biology/Zoologie/Birdlife_International/Birdlife_International.xlsx
+++ b/biology/Zoologie/Birdlife_International/Birdlife_International.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Birdlife international (BLI) est une organisation non gouvernementale (ONG), d'envergure internationale, à vocation de protection de la Nature et des oiseaux en particulier.
 Elle fédère d'autres ONG et des milliers de naturalistes amateurs, ainsi que des écologues et ornithologues professionnels, des scientifiques, des gestionnaires de la conservation de la nature.
@@ -516,7 +528,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Birdlife International a été fondée en 1922 par les ornithologues américain Thomas Gilbert Pearson et français Jean Théodore Delacour sous le nom de ICBP International Council for Bird Preservation (littéralement de l'anglais CIPO « Conseil international pour la préservation des oiseaux »). Ce groupe lobbyiste tombe en désuétude après la Seconde Guerre mondiale. Il redevient de nouveau actif en 1983 avec la nomination d'un directeur professionnalisé, et change son nom en 1993 pour l'actuel.
 De 2003 à 2006, Birdlife International a par exemple activement défendu l'idée que les oiseaux migrateurs n'étaient pas le 1er risque pour la diffusion de la grippe aviaire, mais que l'industrie avicole pouvait être à la source du problème et de sa diffusion, probabilité que la FAO a officiellement reconnu le 22 mai 2006.
@@ -549,7 +563,9 @@
           <t>Objectifs internationaux prioritaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Éviter toute nouvelle disparition d'espèces d'oiseaux sauvages.
 Veiller au statut de conservation de toutes les espèces d'oiseaux et de leurs habitats vitaux.
@@ -585,20 +601,91 @@
           <t>Partenaires par pays</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Birdlife International regroupe des partenaires locaux dans de nombreux pays[1]:
-A
-Afrique du Sud - Birdlife South Africa
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Birdlife International regroupe des partenaires locaux dans de nombreux pays:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Afrique du Sud - Birdlife South Africa
 Allemagne - German Society for Nature Conservation
 Andorre - L'Associació per a la Defensa de la Natura
 Arabie saoudite - National Commission for Wildlife Conservation and Development
 Argentine - Aves Argentinas
 Australie - Birds Australia
 Autriche - Birdlife Austria
-Azerbaïdjan - Azerbaijan Ornithological Society
-B
-Bahamas - Bahamas National Trust
+Azerbaïdjan - Azerbaijan Ornithological Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bahamas - Bahamas National Trust
 Belgique - Natagora et Natuurpunt, rassemblées au sein de Birdlife Belgium
 Belize - Belize Audubon Society
 Biélorussie - APB Birdlife Belarus
@@ -606,71 +693,547 @@
 Botswana - Birdlife Botswana
 Bulgarie - Bulgarian Society for the Protection of Birds
 Burkina Faso - Fondation des Amis de la Nature
-Burundi - Association Burundaise pour la Protection des Oiseaux
-C
-Cameroun - Cameroon Biodiversity Conservation Society
+Burundi - Association Burundaise pour la Protection des Oiseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cameroun - Cameroon Biodiversity Conservation Society
 Canada - Bird Studies Canada et Nature Canada
 Chypre - Birdlife Cyprus
 Îles Cook - Taporoporo’anga Ipukarea Society
 Croatie - Croatian Society for Bird and Nature Protection
-Cuba - Centro Nacional de Áreas Protegidas
-D
-Danemark - Dansk Ornitologisk Forening
-E
-Équateur - Centro Nacional de Áreas Protegidas
+Cuba - Centro Nacional de Áreas Protegidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Danemark - Dansk Ornitologisk Forening</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Équateur - Centro Nacional de Áreas Protegidas
 Espagne - Société espagnole d'ornithologie
 Estonie - Estonian Ornithological Society
 États-Unis - Société nationale Audubon
-Éthiopie - Ethiopian Wildlife and Natural History Society
-F
-Îles Féroé (a Danish overseas territory) - Faroese Ornithological Society
+Éthiopie - Ethiopian Wildlife and Natural History Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Îles Féroé (a Danish overseas territory) - Faroese Ornithological Society
 Finlande - Birdlife Finland
-France - Ligue pour la protection des oiseaux
-G
-Géorgie - Georgian Centre for the Conservation of Wildlife
+France - Ligue pour la protection des oiseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Géorgie - Georgian Centre for the Conservation of Wildlife
 Ghana - Ghana Wildlife Society
 Gibraltar (a British overseas territory) - Gibraltar Ornithological and Natural History Society
-Grèce - Hellenic Ornithological Society
-H
-Hong Kong - Hong Kong Bird Watching Society
-Hongrie - Hungarian Ornithological and Nature Conservation Society
-I
-Inde - Bombay Natural History Society
+Grèce - Hellenic Ornithological Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hong Kong - Hong Kong Bird Watching Society
+Hongrie - Hungarian Ornithological and Nature Conservation Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Inde - Bombay Natural History Society
 Indonésie - Perhimpunan Pelestari Burung dan Habitat (Birdlife) Indonesia
 Irlande - BirdWatch Ireland
 Islande - Fuglavernd
 Israël - Society for the Protection of Nature in Israel
-Italie - Ligue italienne de protection des oiseaux
-J
-Japon - Wild Bird Society of Japan
-Jordanie - Royal Society for the Conservation of Nature
-K
-Kenya - NatureKenya
-Koweït - Kuwait Environment Protection Society
-L
-Lettonie - Latvian Ornithological Society
+Italie - Ligue italienne de protection des oiseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Japon - Wild Bird Society of Japan
+Jordanie - Royal Society for the Conservation of Nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Kenya - NatureKenya
+Koweït - Kuwait Environment Protection Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lettonie - Latvian Ornithological Society
 Liban - Society for the Protection of Nature in Lebanon
 Liberia - The Society for Conservation of Nature in Liberia
 Liechtenstein - Botanish-Zoologische Gesellschaft
 Lituanie - Lithuanian Ornithological Society
-Luxembourg - Lëtzebuerger Natur- a Vulleschutzliga
-M
-Madagascar - Asity Madagascar
+Luxembourg - Lëtzebuerger Natur- a Vulleschutzliga</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Madagascar - Asity Madagascar
 Malaisie - Malaysian Nature Society
 Îles Malouines - Falklands Conservation
 Malte - Birdlife Malta
 Myanmar - Biodiversity and Nature Conservation in Myanmar
-Maroc- Groupe de Recherche Pour la Protection des Oiseaux au Maroc (GREPOM)
-N
-Népal - Bird Conservation Nepal
+Maroc- Groupe de Recherche Pour la Protection des Oiseaux au Maroc (GREPOM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Népal - Bird Conservation Nepal
 Nigeria - Nigerian Conservation Foundation
 Norvège - Norwegian Ornithological Society
 Nouvelle-Calédonie - Société calédonienne d'ornithologie
-Nouvelle-Zélande - The Royal Forest and Bird Protection Society
-O
-Ouganda - NatureUganda
-P
-Pakistan - Ornithological Society of Pakistan
+Nouvelle-Zélande - The Royal Forest and Bird Protection Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ouganda - NatureUganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Pakistan - Ornithological Society of Pakistan
 Palaos - Palau Conservation Society
 Territoires palestiniens occupés - Palestine Wildlife Society
 Panama - Panama Audubon Society
@@ -679,14 +1242,82 @@
 Philippines - Haribon Foundation
 Pologne - Polish Society for the Protection of Birds
 Polynésie française - Société d'ornithologie de Polynésie
-Portugal - Portuguese Society for the Study of Birds
-R
-Roumanie - Romanian Ornithological Society
+Portugal - Portuguese Society for the Study of Birds</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Roumanie - Romanian Ornithological Society
 Royaume-Uni - Royal Society for the Protection of Birds
 Russie - Russian Bird Conservation Union
-Rwanda - Association pour la Conservation de la Nature au Rwanda
-S
-Salvador - SalvaNATURA
+Rwanda - Association pour la Conservation de la Nature au Rwanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Salvador - SalvaNATURA
 Samoa - O le Si'osi'omaga Society Incorporated
 Seychelles - Nature Seychelles
 Sierra Leone - Conservation Society of Sierra Leone
@@ -696,23 +1327,193 @@
 Sri Lanka - Field Ornithology Group of Sri Lanka
 Suriname - Foundation for Nature Conservation in Suriname
 Suède - Swedish Ornithological Society
-Suisse - Association suisse pour la protection des oiseaux
-T
-Taïwan - Wild Bird Federation Taiwan
+Suisse - Association suisse pour la protection des oiseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Taïwan - Wild Bird Federation Taiwan
 Tanzanie - Wildlife Conservation Society of Tanzania
 République tchèque - Czech Society for Ornithology
 Thaïlande - Bird Conservation Society of Thailand
 Tunisie - Association 'Les Amis des Oiseaux'
-Turquie - Doga Dernegi
-U
-Ukraine - Ukrayinske Tovarystvo Okhorony Ptakhiv
-Uruguay - Aves Uruguay
-V
-Venezuela - Sociedad Conservacionista Audubon de Venezuela
-Y
-Yémen - Yemen Society for the Protection of Wildlife
-Z
-Zambie - Zambian Ornithological Society
+Turquie - Doga Dernegi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ukraine - Ukrayinske Tovarystvo Okhorony Ptakhiv
+Uruguay - Aves Uruguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Venezuela - Sociedad Conservacionista Audubon de Venezuela</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Yémen - Yemen Society for the Protection of Wildlife</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Birdlife_International</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Birdlife_International</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Partenaires par pays</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Zambie - Zambian Ornithological Society
 Zimbabwe - BirdLife Zimbabwe</t>
         </is>
       </c>
